--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
     <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
     <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="118">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -316,24 +317,9 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -544,30 +530,9 @@
     <t>Duration + Think_time</t>
   </si>
   <si>
-    <t>Action_Transaction</t>
-  </si>
-  <si>
     <t>Профиль</t>
   </si>
   <si>
-    <t>01_Reg_new_user</t>
-  </si>
-  <si>
-    <t>1_script_buy_a_ticket</t>
-  </si>
-  <si>
-    <t>2_script_delete_reservation</t>
-  </si>
-  <si>
-    <t>3_script_Search_tiskets_without_payment</t>
-  </si>
-  <si>
-    <t>5_Skript_Check_reservation</t>
-  </si>
-  <si>
-    <t>7_login_logout</t>
-  </si>
-  <si>
     <t>Continue</t>
   </si>
   <si>
@@ -584,6 +549,33 @@
   </si>
   <si>
     <t>open_site</t>
+  </si>
+  <si>
+    <t>Поиск максимума 4 ступень</t>
+  </si>
+  <si>
+    <t>Профиль для 10 пользаков</t>
+  </si>
+  <si>
+    <t>Отладочный тест</t>
+  </si>
+  <si>
+    <t>Тест поиск максимума</t>
+  </si>
+  <si>
+    <t>1 ступень</t>
+  </si>
+  <si>
+    <t>2 ступень</t>
+  </si>
+  <si>
+    <t>3 ступень</t>
+  </si>
+  <si>
+    <t>4 ступень</t>
+  </si>
+  <si>
+    <t>5 ступень</t>
   </si>
 </sst>
 </file>
@@ -594,12 +586,28 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +901,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,73 +1552,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="150">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1690,46 +1732,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1739,22 +1780,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1763,7 +1804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1798,38 +1839,52 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="108"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="122"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="136"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="150" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="150"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,10 +1900,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="136"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="164"/>
   </cellXfs>
-  <cellStyles count="150">
+  <cellStyles count="178">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 10" xfId="166"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент1 4" xfId="82"/>
@@ -1856,7 +1912,9 @@
     <cellStyle name="20% — акцент1 6" xfId="110"/>
     <cellStyle name="20% — акцент1 7" xfId="124"/>
     <cellStyle name="20% — акцент1 8" xfId="138"/>
+    <cellStyle name="20% — акцент1 9" xfId="152"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 10" xfId="168"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="84"/>
@@ -1864,7 +1922,9 @@
     <cellStyle name="20% — акцент2 6" xfId="112"/>
     <cellStyle name="20% — акцент2 7" xfId="126"/>
     <cellStyle name="20% — акцент2 8" xfId="140"/>
+    <cellStyle name="20% — акцент2 9" xfId="154"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 10" xfId="170"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент3 4" xfId="86"/>
@@ -1872,7 +1932,9 @@
     <cellStyle name="20% — акцент3 6" xfId="114"/>
     <cellStyle name="20% — акцент3 7" xfId="128"/>
     <cellStyle name="20% — акцент3 8" xfId="142"/>
+    <cellStyle name="20% — акцент3 9" xfId="156"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 10" xfId="172"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент4 4" xfId="88"/>
@@ -1880,7 +1942,9 @@
     <cellStyle name="20% — акцент4 6" xfId="116"/>
     <cellStyle name="20% — акцент4 7" xfId="130"/>
     <cellStyle name="20% — акцент4 8" xfId="144"/>
+    <cellStyle name="20% — акцент4 9" xfId="158"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 10" xfId="174"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент5 4" xfId="90"/>
@@ -1888,7 +1952,9 @@
     <cellStyle name="20% — акцент5 6" xfId="118"/>
     <cellStyle name="20% — акцент5 7" xfId="132"/>
     <cellStyle name="20% — акцент5 8" xfId="146"/>
+    <cellStyle name="20% — акцент5 9" xfId="160"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 10" xfId="176"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="20% — акцент6 4" xfId="92"/>
@@ -1896,7 +1962,9 @@
     <cellStyle name="20% — акцент6 6" xfId="120"/>
     <cellStyle name="20% — акцент6 7" xfId="134"/>
     <cellStyle name="20% — акцент6 8" xfId="148"/>
+    <cellStyle name="20% — акцент6 9" xfId="162"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 10" xfId="167"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент1 4" xfId="83"/>
@@ -1904,7 +1972,9 @@
     <cellStyle name="40% — акцент1 6" xfId="111"/>
     <cellStyle name="40% — акцент1 7" xfId="125"/>
     <cellStyle name="40% — акцент1 8" xfId="139"/>
+    <cellStyle name="40% — акцент1 9" xfId="153"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 10" xfId="169"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="85"/>
@@ -1912,7 +1982,9 @@
     <cellStyle name="40% — акцент2 6" xfId="113"/>
     <cellStyle name="40% — акцент2 7" xfId="127"/>
     <cellStyle name="40% — акцент2 8" xfId="141"/>
+    <cellStyle name="40% — акцент2 9" xfId="155"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 10" xfId="171"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент3 4" xfId="87"/>
@@ -1920,7 +1992,9 @@
     <cellStyle name="40% — акцент3 6" xfId="115"/>
     <cellStyle name="40% — акцент3 7" xfId="129"/>
     <cellStyle name="40% — акцент3 8" xfId="143"/>
+    <cellStyle name="40% — акцент3 9" xfId="157"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 10" xfId="173"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент4 4" xfId="89"/>
@@ -1928,7 +2002,9 @@
     <cellStyle name="40% — акцент4 6" xfId="117"/>
     <cellStyle name="40% — акцент4 7" xfId="131"/>
     <cellStyle name="40% — акцент4 8" xfId="145"/>
+    <cellStyle name="40% — акцент4 9" xfId="159"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 10" xfId="175"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент5 4" xfId="91"/>
@@ -1936,7 +2012,9 @@
     <cellStyle name="40% — акцент5 6" xfId="119"/>
     <cellStyle name="40% — акцент5 7" xfId="133"/>
     <cellStyle name="40% — акцент5 8" xfId="147"/>
+    <cellStyle name="40% — акцент5 9" xfId="161"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 10" xfId="177"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="40% — акцент6 4" xfId="93"/>
@@ -1944,6 +2022,7 @@
     <cellStyle name="40% — акцент6 6" xfId="121"/>
     <cellStyle name="40% — акцент6 7" xfId="135"/>
     <cellStyle name="40% — акцент6 8" xfId="149"/>
+    <cellStyle name="40% — акцент6 9" xfId="163"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1976,6 +2055,8 @@
     <cellStyle name="Нейтральный 2" xfId="46"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="136"/>
+    <cellStyle name="Обычный 11" xfId="150"/>
+    <cellStyle name="Обычный 12" xfId="164"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
     <cellStyle name="Обычный 4" xfId="45"/>
@@ -1986,6 +2067,8 @@
     <cellStyle name="Обычный 9" xfId="122"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 10" xfId="151"/>
+    <cellStyle name="Примечание 11" xfId="165"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 3" xfId="47"/>
     <cellStyle name="Примечание 4" xfId="67"/>
@@ -2115,7 +2198,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="??????? ???????" refreshedDate="45061.766775925928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="??????? ???????" refreshedDate="45065.422389004627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H32" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -3223,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,80 +3336,80 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="50" t="s">
+      <c r="P1" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="U1" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="51" t="s">
+      <c r="W1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="B2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <f t="shared" ref="D2:D3" si="0">VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3334,7 +3417,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <f>60/E2*C2</f>
         <v>1.5384615384615385</v>
       </c>
@@ -3342,70 +3425,70 @@
         <f>VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <f>D2*F2*G2</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
         <v>135.77375565610862</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="14"/>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="77">
+      <c r="N2" s="76">
         <v>1.9</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="41">
         <v>25</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="42">
         <f>N2+O2</f>
         <v>26.9</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="24">
         <v>39</v>
       </c>
-      <c r="R2" s="62">
+      <c r="R2" s="61">
         <v>2</v>
       </c>
-      <c r="S2" s="63">
+      <c r="S2" s="62">
         <f t="shared" ref="S2:S7" si="1">R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="66">
+      <c r="T2" s="65">
         <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="U2" s="67">
+      <c r="U2" s="66">
         <v>20</v>
       </c>
-      <c r="V2" s="68">
+      <c r="V2" s="67">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>62</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="31">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3413,7 +3496,7 @@
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>60/E3*C3</f>
         <v>1.5384615384615385</v>
       </c>
@@ -3421,65 +3504,65 @@
         <f>VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>D3*F3*G3</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>89.773755656108605</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="53" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="76">
         <v>1.3</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="41">
         <v>20</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="42">
         <f t="shared" ref="P3:P7" si="3">N3+O3</f>
         <v>21.3</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="24">
         <v>50</v>
       </c>
-      <c r="R3" s="62">
+      <c r="R3" s="61">
         <v>1</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="62">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="65">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="66">
         <v>20</v>
       </c>
-      <c r="V3" s="68">
+      <c r="V3" s="67">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>24</v>
       </c>
-      <c r="W3" s="32"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3487,7 +3570,7 @@
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f t="shared" ref="F4" si="4">60/E4*C4</f>
         <v>1.5384615384615385</v>
       </c>
@@ -3495,65 +3578,65 @@
         <f t="shared" ref="G4:G6" si="5">VLOOKUP(A4,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f t="shared" ref="H4" si="6">D4*F4*G4</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>106.66772655007949</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="77">
+      <c r="K4" s="14"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="76">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="41">
         <v>20</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="42">
         <f t="shared" si="3"/>
         <v>21.1</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="24">
         <v>37</v>
       </c>
-      <c r="R4" s="62">
+      <c r="R4" s="61">
         <v>1</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="62">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="66">
+      <c r="T4" s="65">
         <f t="shared" si="2"/>
         <v>1.6216216216216217</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="66">
         <v>20</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="67">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>32</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="31"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3561,7 +3644,7 @@
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f t="shared" ref="F5" si="7">60/E5*C5</f>
         <v>1.5384615384615385</v>
       </c>
@@ -3569,67 +3652,67 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f t="shared" ref="H5" si="8">D5*F5*G5</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>89.773755656108605</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="77">
+      <c r="M5" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="76">
         <v>1.4</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="41">
         <v>25</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="42">
         <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="24">
         <v>85</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="61">
         <v>2</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="62">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="65">
         <f t="shared" si="2"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="66">
         <v>20</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="67">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>28</v>
       </c>
-      <c r="W5" s="32"/>
+      <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <f t="shared" ref="D6" si="9">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3637,7 +3720,7 @@
         <f t="shared" ref="E6" si="10">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f t="shared" ref="F6:F13" si="11">60/E6*C6</f>
         <v>1.5384615384615385</v>
       </c>
@@ -3645,64 +3728,64 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f t="shared" ref="H6:H13" si="12">D6*F6*G6</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>61.53846153846154</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="M6" s="53" t="s">
+      <c r="K6" s="14"/>
+      <c r="M6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="76">
         <v>1</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="41">
         <v>20</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="42">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>200</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="61">
         <v>2</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="62">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="66">
+      <c r="T6" s="65">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="66">
         <v>20</v>
       </c>
-      <c r="V6" s="68">
+      <c r="V6" s="67">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>12</v>
       </c>
-      <c r="W6" s="32"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <f t="shared" ref="D7:D32" si="13">VLOOKUP(A7,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3710,7 +3793,7 @@
         <f t="shared" ref="E7:E32" si="14">VLOOKUP(A7,$M$1:$X$8,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f t="shared" si="11"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3718,64 +3801,64 @@
         <f t="shared" ref="G7:G32" si="15">VLOOKUP(A7,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f t="shared" si="12"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>24</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="M7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="77">
+      <c r="K7" s="14"/>
+      <c r="M7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="76">
         <v>0.2</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="43">
         <v>10</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="42">
         <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="24">
         <v>240</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="61">
         <v>2</v>
       </c>
-      <c r="S7" s="63">
+      <c r="S7" s="62">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T7" s="66">
+      <c r="T7" s="65">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="66">
         <v>20</v>
       </c>
-      <c r="V7" s="68">
+      <c r="V7" s="67">
         <f>SUM(V2:V6)</f>
         <v>158</v>
       </c>
-      <c r="W7" s="32"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -3783,7 +3866,7 @@
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f t="shared" si="11"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3791,51 +3874,51 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f t="shared" si="12"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>97.538461538461547</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="69">
+      <c r="K8" s="14"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="68">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="33"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
@@ -3843,37 +3926,37 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="I9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="17">
         <v>168.20618808854104</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="B10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
@@ -3881,36 +3964,36 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="I10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="17">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
@@ -3918,36 +4001,36 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="I11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="17">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
@@ -3955,36 +4038,36 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="18">
+      <c r="I12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="17">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
@@ -3992,36 +4075,36 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="17">
         <v>101.77375565610861</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="22">
         <v>1</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f t="shared" ref="F14:F27" si="16">60/E14*C14</f>
         <v>1.6216216216216217</v>
       </c>
@@ -4029,36 +4112,36 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f t="shared" ref="H14:H27" si="17">D14*F14*G14</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="I14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="17">
         <v>972.34315763727523</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f t="shared" si="16"/>
         <v>1.6216216216216217</v>
       </c>
@@ -4066,30 +4149,30 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="A16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="22">
         <v>1</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f t="shared" si="16"/>
         <v>1.6216216216216217</v>
       </c>
@@ -4097,30 +4180,30 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="A17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f t="shared" si="16"/>
         <v>1.6216216216216217</v>
       </c>
@@ -4128,30 +4211,30 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" si="16"/>
         <v>1.6216216216216217</v>
       </c>
@@ -4159,22 +4242,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="46">
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="45">
         <v>1</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4182,7 +4265,7 @@
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
@@ -4190,22 +4273,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="46">
+      <c r="A20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4213,7 +4296,7 @@
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
@@ -4221,22 +4304,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <v>1</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4244,7 +4327,7 @@
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
@@ -4252,22 +4335,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="A22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="22">
         <v>1</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4275,7 +4358,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4283,22 +4366,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
+      <c r="A23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
         <v>1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4306,7 +4389,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4314,22 +4397,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="23">
+      <c r="A24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="22">
         <v>1</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4337,7 +4420,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4345,22 +4428,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>1</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4368,7 +4451,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4376,22 +4459,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>1</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4399,7 +4482,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4407,22 +4490,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4430,7 +4513,7 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
@@ -4438,22 +4521,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <f t="shared" si="17"/>
         <v>28.235294117647062</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="23">
+      <c r="B28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4461,7 +4544,7 @@
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f t="shared" ref="F28:F32" si="18">60/E28*C28</f>
         <v>0.3</v>
       </c>
@@ -4469,22 +4552,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <f t="shared" ref="H28:H32" si="19">D28*F28*G28</f>
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="B29" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
         <v>1</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4492,7 +4575,7 @@
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
@@ -4500,22 +4583,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="B30" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="22">
         <v>1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4523,7 +4606,7 @@
         <f t="shared" ref="E30" si="20">VLOOKUP(A30,$M$1:$X$8,5,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <f t="shared" ref="F30" si="21">60/E30*C30</f>
         <v>0.3</v>
       </c>
@@ -4531,22 +4614,22 @@
         <f t="shared" ref="G30" si="22">VLOOKUP(A30,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <f t="shared" ref="H30" si="23">D30*F30*G30</f>
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>1</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4554,7 +4637,7 @@
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
@@ -4562,22 +4645,22 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>1</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -4585,7 +4668,7 @@
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
@@ -4593,462 +4676,462 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="88"/>
+      <c r="A36" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="99"/>
     </row>
     <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="A37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="71">
+      <c r="B38" s="70">
         <v>520</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>504.61856426562315</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <f>1-B38/C38</f>
         <v>-3.0481311675010669E-2</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="76" t="str">
+      <c r="E38" s="34"/>
+      <c r="F38" s="75" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>open_site</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <f>C38/3</f>
         <v>168.20618808854104</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>168</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <f t="shared" ref="I38:I49" si="24">1-G38/H38</f>
         <v>-1.2273100508395363E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="71">
+      <c r="A39" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="70">
         <v>422</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A39)*3</f>
         <v>407.32126696832586</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <f>1-B39/C39</f>
         <v>-3.6037236997044975E-2</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="76" t="str">
+      <c r="E39" s="34"/>
+      <c r="F39" s="75" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <f t="shared" ref="G39:G49" si="25">C39/3</f>
         <v>135.77375565610862</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="20">
         <f t="shared" si="24"/>
         <v>1.6635613521425174E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="71">
+      <c r="A40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="70">
         <v>305</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="72">
         <f t="shared" ref="C40:C49" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A40)*3</f>
         <v>305.3212669683258</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <f>1-B40/C40</f>
         <v>1.0522259766435615E-3</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="76" t="str">
+      <c r="E40" s="34"/>
+      <c r="F40" s="75" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_flights</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <f t="shared" si="25"/>
         <v>101.77375565610861</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>102</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <f t="shared" si="24"/>
         <v>2.2180818028567639E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="71">
+      <c r="B41" s="70">
         <v>282</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <f t="shared" si="26"/>
         <v>269.3212669683258</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <f t="shared" ref="D41:D50" si="27">1-B41/C41</f>
         <v>-4.7076612903225845E-2</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="76" t="str">
+      <c r="E41" s="34"/>
+      <c r="F41" s="75" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>fing_flight</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="36">
         <f t="shared" si="25"/>
         <v>89.773755656108605</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="20">
         <f t="shared" si="24"/>
         <v>2.513826043237688E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="71">
+      <c r="B42" s="70">
         <v>270</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <f t="shared" si="26"/>
         <v>269.3212669683258</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <f t="shared" si="27"/>
         <v>-2.520161290322509E-3</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="76" t="str">
+      <c r="E42" s="34"/>
+      <c r="F42" s="75" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>select_ticket</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="36">
         <f t="shared" si="25"/>
         <v>89.773755656108605</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>89</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <f t="shared" si="24"/>
         <v>-8.6938837765011545E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="71">
+      <c r="B43" s="70">
         <v>175</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <f t="shared" si="26"/>
         <v>184.61538461538461</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <f t="shared" si="27"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="76" t="str">
+      <c r="E43" s="34"/>
+      <c r="F43" s="75" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>payment_details</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <f t="shared" si="25"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>61</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="20">
         <f t="shared" si="24"/>
         <v>-8.8272383354350836E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="71">
+      <c r="B44" s="70">
         <v>280</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <f t="shared" si="26"/>
         <v>292.61538461538464</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <f t="shared" si="27"/>
         <v>4.311251314405895E-2</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="76" t="str">
+      <c r="E44" s="44"/>
+      <c r="F44" s="75" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>Check_ticket</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="36">
         <f t="shared" si="25"/>
         <v>97.538461538461547</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>98</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="20">
         <f t="shared" si="24"/>
         <v>4.7095761381474865E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="80">
+      <c r="B45" s="79">
         <v>73</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <f t="shared" si="26"/>
         <v>72</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="80">
         <f t="shared" si="27"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="76" t="str">
+      <c r="E45" s="34"/>
+      <c r="F45" s="75" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>Cancel_reservation</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="36">
         <f t="shared" si="25"/>
         <v>24</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="71">
+      <c r="B46" s="70">
         <v>326</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <f t="shared" si="26"/>
         <v>320.00317965023851</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <f t="shared" si="27"/>
         <v>-1.873987738595595E-2</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="76" t="str">
+      <c r="E46" s="34"/>
+      <c r="F46" s="75" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>log_out</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <f t="shared" si="25"/>
         <v>106.66772655007951</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>106</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <f t="shared" si="24"/>
         <v>-6.2993070762218384E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="80">
+      <c r="A47" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="79">
         <v>97</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="80">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="76" t="str">
+      <c r="E47" s="34"/>
+      <c r="F47" s="75" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>Open_sign_up_now</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="36">
         <f t="shared" si="25"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <f t="shared" si="24"/>
         <v>1.7199017199017064E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="80">
+      <c r="A48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="79">
         <v>97</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="80">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="76" t="str">
+      <c r="E48" s="34"/>
+      <c r="F48" s="75" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>Filling_out_the_form</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <f t="shared" si="25"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <f t="shared" si="24"/>
         <v>1.7199017199017064E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="80">
+      <c r="A49" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="79">
         <v>97</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="80">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="76" t="str">
+      <c r="E49" s="34"/>
+      <c r="F49" s="75" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>Continue</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <f t="shared" si="25"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="20">
         <f t="shared" si="24"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="72">
+      <c r="B50" s="71">
         <f>SUM(B38:B49)</f>
         <v>2944</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="73">
         <f>SUM(C38:C49)</f>
         <v>2917.0294729118264</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <f t="shared" si="27"/>
         <v>-9.2458877562355823E-3</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="17">
         <f>G38+G39+G40+G41+G42+G43+G44+G45+G46+G47+G48+G49</f>
         <v>972.34315763727523</v>
       </c>
@@ -5056,1055 +5139,1055 @@
         <f>H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49</f>
         <v>972</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="32"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="58">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="57">
         <f>1-B54/H54</f>
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I53" s="58">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="57">
         <f>1-B55/H55</f>
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="38">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="24">
         <v>57</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="23">
         <f>60/C54</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="30">
         <v>20</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54" s="55">
         <f>B54/(D54*E54)</f>
         <v>1.9633333333333336</v>
       </c>
-      <c r="G54" s="57">
+      <c r="G54" s="56">
         <f>ROUND(F54,0)</f>
         <v>2</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="56">
         <f>G54*D54*E54</f>
         <v>42.105263157894733</v>
       </c>
-      <c r="I54" s="58">
+      <c r="I54" s="57">
         <f>1-B56/H56</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="39">
+      <c r="A55" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="38">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="24">
         <v>25</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <f>60/C55</f>
         <v>2.4</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="30">
         <v>20</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="55">
         <f>B55/(D55*E55)</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="G55" s="57">
+      <c r="G55" s="56">
         <f>ROUND(F55,0)</f>
         <v>1</v>
       </c>
-      <c r="H55" s="57">
+      <c r="H55" s="56">
         <f>G55*D55*E55</f>
         <v>48</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="57">
         <f>1-B57/H57</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="40">
+      <c r="A56" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="39">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="29">
         <v>115</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <f>60/C56</f>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="30">
         <v>20</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="55">
         <f>B56/(D56*E56)</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="G56" s="57">
+      <c r="G56" s="56">
         <v>1</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="56">
         <f>G56*D56*E56</f>
         <v>10.434782608695652</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="57">
         <f>1-B58/H58</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="39">
+      <c r="A57" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="38">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="24">
         <v>180</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="23">
         <f>60/C57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="30">
         <v>20</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="55">
         <f>B57/(D57*E57)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="G57" s="57">
+      <c r="G57" s="56">
         <v>1</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="56">
         <f>G57*D57*E57</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="I57" s="33"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="39">
+      <c r="A58" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="38">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="24">
         <v>30</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <f>60/C58</f>
         <v>2</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <v>20</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="55">
         <f>B58/(D58*E58)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="57">
+      <c r="G58" s="56">
         <f>ROUND(F58,0)</f>
         <v>1</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H58" s="56">
         <f>G58*D58*E58</f>
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61">
+      <c r="A59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60">
         <f>SUM(G54:G58)</f>
         <v>6</v>
       </c>
-      <c r="H59" s="60"/>
+      <c r="H59" s="59"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I60" s="16" t="s">
-        <v>40</v>
+      <c r="I60" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I61" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="18">
+      <c r="I61" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="17">
         <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" s="51" t="s">
+      <c r="A62" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J62" s="18">
+      <c r="H62" s="33"/>
+      <c r="I62" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J62" s="17">
         <v>154.66666666666669</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="57">
+      <c r="B63" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="56">
         <f t="shared" ref="C63:C88" si="28">VLOOKUP(A63,$A$54:$H$58,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="53">
         <f t="shared" ref="D63:D88" si="29">VLOOKUP(A63,$A$54:$H$58,3,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="56">
         <f t="shared" ref="E63:E88" si="30">60/D63</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F63" s="54">
+      <c r="F63" s="53">
         <v>20</v>
       </c>
-      <c r="G63" s="57">
+      <c r="G63" s="56">
         <f t="shared" ref="G63:G88" si="31">C63*E63*F63</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J63" s="18">
+      <c r="H63" s="31"/>
+      <c r="I63" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="17">
         <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="57">
+      <c r="B64" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D64" s="54">
+      <c r="D64" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E64" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F64" s="54">
+      <c r="F64" s="53">
         <v>20</v>
       </c>
-      <c r="G64" s="57">
+      <c r="G64" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J64" s="18">
+      <c r="H64" s="31"/>
+      <c r="I64" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" s="17">
         <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="57">
+      <c r="B65" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D65" s="54">
+      <c r="D65" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E65" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F65" s="54">
+      <c r="F65" s="53">
         <v>20</v>
       </c>
-      <c r="G65" s="57">
+      <c r="G65" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J65" s="18">
+      <c r="H65" s="31"/>
+      <c r="I65" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="17">
         <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="57">
+      <c r="B66" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D66" s="54">
+      <c r="D66" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F66" s="54">
+      <c r="F66" s="53">
         <v>20</v>
       </c>
-      <c r="G66" s="57">
+      <c r="G66" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H66" s="32"/>
-      <c r="I66" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J66" s="18">
+      <c r="H66" s="31"/>
+      <c r="I66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="17">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="57">
+      <c r="B67" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D67" s="54">
+      <c r="D67" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E67" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F67" s="54">
+      <c r="F67" s="53">
         <v>20</v>
       </c>
-      <c r="G67" s="57">
+      <c r="G67" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="J67" s="18">
+      <c r="H67" s="31"/>
+      <c r="I67" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="17">
         <v>41.333333333333336</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="57">
+      <c r="B68" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D68" s="54">
+      <c r="D68" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E68" s="57">
+      <c r="E68" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="53">
         <v>20</v>
       </c>
-      <c r="G68" s="57">
+      <c r="G68" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H68" s="32"/>
-      <c r="I68" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J68" s="18">
+      <c r="H68" s="31"/>
+      <c r="I68" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="57">
+      <c r="B69" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="56">
         <f t="shared" si="28"/>
         <v>1.9633333333333336</v>
       </c>
-      <c r="D69" s="54">
+      <c r="D69" s="53">
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E69" s="57">
+      <c r="E69" s="56">
         <f t="shared" si="30"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="F69" s="54">
+      <c r="F69" s="53">
         <v>20</v>
       </c>
-      <c r="G69" s="57">
+      <c r="G69" s="56">
         <f t="shared" si="31"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="18">
+      <c r="H69" s="31"/>
+      <c r="I69" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J69" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="57">
+      <c r="A70" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="56">
         <f t="shared" si="28"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="D70" s="54">
+      <c r="D70" s="53">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="E70" s="57">
+      <c r="E70" s="56">
         <f t="shared" si="30"/>
         <v>2.4</v>
       </c>
-      <c r="F70" s="54">
+      <c r="F70" s="53">
         <v>20</v>
       </c>
-      <c r="G70" s="57">
+      <c r="G70" s="56">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" s="15">
+      <c r="H70" s="31"/>
+      <c r="I70" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="14">
         <v>696.00000000000011</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="57">
+      <c r="A71" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="56">
         <f t="shared" si="28"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D71" s="53">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="E71" s="57">
+      <c r="E71" s="56">
         <f t="shared" si="30"/>
         <v>2.4</v>
       </c>
-      <c r="F71" s="54">
+      <c r="F71" s="53">
         <v>20</v>
       </c>
-      <c r="G71" s="57">
+      <c r="G71" s="56">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="H71" s="32"/>
+      <c r="H71" s="31"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="57">
+      <c r="A72" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="56">
         <f t="shared" si="28"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="D72" s="54">
+      <c r="D72" s="53">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="E72" s="57">
+      <c r="E72" s="56">
         <f t="shared" si="30"/>
         <v>2.4</v>
       </c>
-      <c r="F72" s="54">
+      <c r="F72" s="53">
         <v>20</v>
       </c>
-      <c r="G72" s="57">
+      <c r="G72" s="56">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="H72" s="32"/>
+      <c r="H72" s="31"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="57">
+      <c r="A73" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="56">
         <f t="shared" si="28"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D73" s="54">
+      <c r="D73" s="53">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="E73" s="57">
+      <c r="E73" s="56">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="53">
         <v>20</v>
       </c>
-      <c r="G73" s="57">
+      <c r="G73" s="56">
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="H73" s="32"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="57">
+      <c r="A74" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="56">
         <f t="shared" si="28"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D74" s="54">
+      <c r="D74" s="53">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="56">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="F74" s="54">
+      <c r="F74" s="53">
         <v>20</v>
       </c>
-      <c r="G74" s="57">
+      <c r="G74" s="56">
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="H74" s="32"/>
+      <c r="H74" s="31"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="57">
+      <c r="A75" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="56">
         <f t="shared" si="28"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D75" s="54">
+      <c r="D75" s="53">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E75" s="56">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="F75" s="54">
+      <c r="F75" s="53">
         <v>20</v>
       </c>
-      <c r="G75" s="57">
+      <c r="G75" s="56">
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="H75" s="32"/>
+      <c r="H75" s="31"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="57">
+      <c r="A76" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="56">
         <f t="shared" si="28"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="53">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="E76" s="57">
+      <c r="E76" s="56">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="F76" s="54">
+      <c r="F76" s="53">
         <v>20</v>
       </c>
-      <c r="G76" s="57">
+      <c r="G76" s="56">
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="H76" s="32"/>
+      <c r="H76" s="31"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="57">
+      <c r="A77" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="56">
         <f t="shared" si="28"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="53">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E77" s="56">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="F77" s="54">
+      <c r="F77" s="53">
         <v>20</v>
       </c>
-      <c r="G77" s="57">
+      <c r="G77" s="56">
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="H77" s="32"/>
+      <c r="H77" s="31"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="57">
+      <c r="A78" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D78" s="54">
+      <c r="D78" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F78" s="54">
+      <c r="F78" s="53">
         <v>20</v>
       </c>
-      <c r="G78" s="57">
+      <c r="G78" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H78" s="32"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="57">
+      <c r="A79" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D79" s="54">
+      <c r="D79" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E79" s="57">
+      <c r="E79" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F79" s="54">
+      <c r="F79" s="53">
         <v>20</v>
       </c>
-      <c r="G79" s="57">
+      <c r="G79" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H79" s="32"/>
+      <c r="H79" s="31"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="57">
+      <c r="A80" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D80" s="54">
+      <c r="D80" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E80" s="57">
+      <c r="E80" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F80" s="54">
+      <c r="F80" s="53">
         <v>20</v>
       </c>
-      <c r="G80" s="57">
+      <c r="G80" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H80" s="32"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="57">
+      <c r="A81" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D81" s="54">
+      <c r="D81" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E81" s="57">
+      <c r="E81" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F81" s="54">
+      <c r="F81" s="53">
         <v>20</v>
       </c>
-      <c r="G81" s="57">
+      <c r="G81" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H81" s="32"/>
+      <c r="H81" s="31"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="57">
+      <c r="A82" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D82" s="54">
+      <c r="D82" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F82" s="54">
+      <c r="F82" s="53">
         <v>20</v>
       </c>
-      <c r="G82" s="57">
+      <c r="G82" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H82" s="32"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="57">
+      <c r="A83" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E83" s="57">
+      <c r="E83" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F83" s="54">
+      <c r="F83" s="53">
         <v>20</v>
       </c>
-      <c r="G83" s="57">
+      <c r="G83" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H83" s="32"/>
+      <c r="H83" s="31"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="57">
+      <c r="A84" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="56">
         <f t="shared" si="28"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="53">
         <f t="shared" si="29"/>
         <v>180</v>
       </c>
-      <c r="E84" s="57">
+      <c r="E84" s="56">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F84" s="54">
+      <c r="F84" s="53">
         <v>20</v>
       </c>
-      <c r="G84" s="57">
+      <c r="G84" s="56">
         <f t="shared" si="31"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="H84" s="32"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="57">
+      <c r="A85" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="56">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="D85" s="54">
+      <c r="D85" s="53">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="56">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="F85" s="54">
+      <c r="F85" s="53">
         <v>20</v>
       </c>
-      <c r="G85" s="57">
+      <c r="G85" s="56">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="H85" s="32"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="57">
+      <c r="A86" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="56">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="D86" s="54">
+      <c r="D86" s="53">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E86" s="56">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="F86" s="54">
+      <c r="F86" s="53">
         <v>20</v>
       </c>
-      <c r="G86" s="57">
+      <c r="G86" s="56">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="H86" s="32"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="57">
+      <c r="A87" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="56">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="D87" s="54">
+      <c r="D87" s="53">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="56">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="F87" s="54">
+      <c r="F87" s="53">
         <v>20</v>
       </c>
-      <c r="G87" s="57">
+      <c r="G87" s="56">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="H87" s="32"/>
+      <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="61">
+      <c r="A88" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="60">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="59">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="E88" s="61">
+      <c r="E88" s="60">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="F88" s="60">
+      <c r="F88" s="59">
         <v>20</v>
       </c>
-      <c r="G88" s="61">
+      <c r="G88" s="60">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="H88" s="33"/>
+      <c r="H88" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6132,119 +6215,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>81</v>
+      <c r="A1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="str">
+      <c r="A2" s="75" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="78" t="s">
-        <v>120</v>
+      <c r="B2" s="77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="75" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="str">
+      <c r="A4" s="75" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>117</v>
+      <c r="B4" s="77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="str">
+      <c r="A5" s="75" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="str">
+      <c r="A6" s="75" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="str">
+      <c r="A7" s="75" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="str">
+      <c r="A8" s="75" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="str">
+      <c r="A9" s="75" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="str">
+      <c r="A10" s="75" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>118</v>
+      <c r="B10" s="77" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="str">
+      <c r="A11" s="75" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>119</v>
+      <c r="B11" s="77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="str">
+      <c r="A12" s="75" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>116</v>
+      <c r="B12" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="str">
+      <c r="A13" s="75" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>115</v>
+      <c r="B13" s="77" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6254,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,1385 +6348,697 @@
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="H1" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="83">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D2" s="83">
-        <v>0.37</v>
-      </c>
-      <c r="E2" s="83">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="F2" s="83">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G2" s="83">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="H2" s="83">
+      <c r="C2" s="84">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D2" s="84">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E2" s="84">
+        <v>0.112</v>
+      </c>
+      <c r="F2" s="84">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G2" s="84">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H2" s="84">
+        <v>24</v>
+      </c>
+      <c r="I2" s="84">
+        <v>0</v>
+      </c>
+      <c r="J2" s="86">
+        <v>0</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="84">
+        <v>0.109</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E3" s="84">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F3" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="84">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H3" s="84">
+        <v>98</v>
+      </c>
+      <c r="I3" s="84">
+        <v>0</v>
+      </c>
+      <c r="J3" s="86">
+        <v>0</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="84">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0.109</v>
+      </c>
+      <c r="E4" s="84">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F4" s="84">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="84">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H4" s="84">
         <v>32</v>
       </c>
-      <c r="I2" s="83">
-        <v>0</v>
-      </c>
-      <c r="J2" s="83">
-        <v>0</v>
-      </c>
-      <c r="L2" s="79">
-        <f>H2*4</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="83">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D3" s="83">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E3" s="83">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="F3" s="83">
+      <c r="I4" s="84">
+        <v>0</v>
+      </c>
+      <c r="J4" s="86">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="84">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D5" s="84">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E5" s="84">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F5" s="84">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="84">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H5" s="84">
+        <v>33</v>
+      </c>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="86">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="84">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D6" s="84">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F6" s="84">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G6" s="84">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H6" s="84">
+        <v>90</v>
+      </c>
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="86">
+        <v>0</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="84">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F7" s="84">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H7" s="84">
+        <v>102</v>
+      </c>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="86">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="84">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="84">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F8" s="84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="84">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H8" s="84">
+        <v>106</v>
+      </c>
+      <c r="I8" s="84">
+        <v>0</v>
+      </c>
+      <c r="J8" s="86">
+        <v>0</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="84">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D9" s="84">
+        <v>0.111</v>
+      </c>
+      <c r="E9" s="84">
+        <v>0.156</v>
+      </c>
+      <c r="F9" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="84">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H9" s="84">
+        <v>136</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="86">
+        <v>0</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="84">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G3" s="83">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="H3" s="83">
-        <v>62</v>
-      </c>
-      <c r="I3" s="83">
-        <v>0</v>
-      </c>
-      <c r="J3" s="83">
-        <v>0</v>
-      </c>
-      <c r="L3" s="79">
-        <f t="shared" ref="L3:L20" si="0">H3*4</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="83">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="D4" s="83">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E4" s="83">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="F4" s="83">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G4" s="83">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="H4" s="83">
-        <v>24</v>
-      </c>
-      <c r="I4" s="83">
-        <v>0</v>
-      </c>
-      <c r="J4" s="83">
-        <v>0</v>
-      </c>
-      <c r="L4" s="79">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="83">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D5" s="83">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E5" s="83">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F5" s="83">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="83">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="H5" s="83">
-        <v>28</v>
-      </c>
-      <c r="I5" s="83">
-        <v>0</v>
-      </c>
-      <c r="J5" s="83">
-        <v>0</v>
-      </c>
-      <c r="L5" s="79">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="83">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="D6" s="83">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="E6" s="83">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="F6" s="83">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G6" s="83">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="H6" s="83">
-        <v>12</v>
-      </c>
-      <c r="I6" s="83">
-        <v>0</v>
-      </c>
-      <c r="J6" s="83">
-        <v>0</v>
-      </c>
-      <c r="L6" s="79">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="83">
-        <v>0.253</v>
-      </c>
-      <c r="D7" s="83">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E7" s="83">
-        <v>0.31</v>
-      </c>
-      <c r="F7" s="83">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G7" s="83">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H7" s="83">
-        <v>10</v>
-      </c>
-      <c r="I7" s="83">
-        <v>0</v>
-      </c>
-      <c r="J7" s="83">
-        <v>0</v>
-      </c>
-      <c r="L7" s="79">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="83">
-        <v>0.253</v>
-      </c>
-      <c r="D8" s="83">
-        <v>0.503</v>
-      </c>
-      <c r="E8" s="83">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="F8" s="83">
+      <c r="D10" s="84">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E10" s="84">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F10" s="84">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="84">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H10" s="84">
+        <v>33</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0</v>
+      </c>
+      <c r="J10" s="86">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="84">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D11" s="84">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E11" s="84">
         <v>0.11</v>
       </c>
-      <c r="G8" s="83">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="H8" s="83">
+      <c r="F11" s="84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="84">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H11" s="84">
         <v>168</v>
       </c>
-      <c r="I8" s="83">
-        <v>0</v>
-      </c>
-      <c r="J8" s="83">
-        <v>0</v>
-      </c>
-      <c r="L8" s="79">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="83">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D9" s="83">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E9" s="83">
-        <v>0.112</v>
-      </c>
-      <c r="F9" s="83">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G9" s="83">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H9" s="83">
-        <v>24</v>
-      </c>
-      <c r="I9" s="83">
-        <v>0</v>
-      </c>
-      <c r="J9" s="83">
-        <v>0</v>
-      </c>
-      <c r="L9" s="79">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="83">
-        <v>0.109</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="F10" s="83">
-        <v>0.02</v>
-      </c>
-      <c r="G10" s="83">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H10" s="83">
-        <v>98</v>
-      </c>
-      <c r="I10" s="83">
-        <v>0</v>
-      </c>
-      <c r="J10" s="83">
-        <v>0</v>
-      </c>
-      <c r="L10" s="79">
-        <f t="shared" si="0"/>
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="83">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D11" s="83">
-        <v>0.109</v>
-      </c>
-      <c r="E11" s="83">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F11" s="83">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G11" s="83">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="H11" s="83">
-        <v>32</v>
-      </c>
-      <c r="I11" s="83">
-        <v>0</v>
-      </c>
-      <c r="J11" s="83">
-        <v>0</v>
-      </c>
-      <c r="L11" s="79">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="83">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D12" s="83">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F12" s="83">
+      <c r="I11" s="84">
+        <v>0</v>
+      </c>
+      <c r="J11" s="86">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="84">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E12" s="84">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F12" s="84">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="84">
         <v>5.5E-2</v>
       </c>
-      <c r="G12" s="83">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H12" s="83">
-        <v>33</v>
-      </c>
-      <c r="I12" s="83">
-        <v>0</v>
-      </c>
-      <c r="J12" s="83">
-        <v>0</v>
-      </c>
-      <c r="L12" s="79">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="83">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D13" s="83">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E13" s="83">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="F13" s="83">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G13" s="83">
+      <c r="H12" s="84">
+        <v>61</v>
+      </c>
+      <c r="I12" s="84">
+        <v>0</v>
+      </c>
+      <c r="J12" s="86">
+        <v>0</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="84">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D13" s="84">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E13" s="84">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F13" s="84">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="84">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H13" s="83">
-        <v>90</v>
-      </c>
-      <c r="I13" s="83">
-        <v>0</v>
-      </c>
-      <c r="J13" s="83">
-        <v>0</v>
-      </c>
-      <c r="L13" s="79">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="83">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D14" s="83">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E14" s="83">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F14" s="83">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="83">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H14" s="83">
-        <v>102</v>
-      </c>
-      <c r="I14" s="83">
-        <v>0</v>
-      </c>
-      <c r="J14" s="83">
-        <v>0</v>
-      </c>
-      <c r="L14" s="79">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="83">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D15" s="83">
-        <v>0.08</v>
-      </c>
-      <c r="E15" s="83">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F15" s="83">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="83">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H15" s="83">
-        <v>106</v>
-      </c>
-      <c r="I15" s="83">
-        <v>0</v>
-      </c>
-      <c r="J15" s="83">
-        <v>0</v>
-      </c>
-      <c r="L15" s="79">
-        <f t="shared" si="0"/>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="83">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0.111</v>
-      </c>
-      <c r="E16" s="83">
-        <v>0.156</v>
-      </c>
-      <c r="F16" s="83">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="83">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H16" s="83">
-        <v>136</v>
-      </c>
-      <c r="I16" s="83">
-        <v>0</v>
-      </c>
-      <c r="J16" s="83">
-        <v>0</v>
-      </c>
-      <c r="L16" s="79">
-        <f t="shared" si="0"/>
-        <v>544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="83">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D17" s="83">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E17" s="83">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F17" s="83">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="83">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H17" s="83">
-        <v>33</v>
-      </c>
-      <c r="I17" s="83">
-        <v>0</v>
-      </c>
-      <c r="J17" s="83">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="83">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D18" s="83">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E18" s="83">
-        <v>0.11</v>
-      </c>
-      <c r="F18" s="83">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="83">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H18" s="83">
-        <v>168</v>
-      </c>
-      <c r="I18" s="83">
-        <v>0</v>
-      </c>
-      <c r="J18" s="83">
-        <v>0</v>
-      </c>
-      <c r="L18" s="79">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="83">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="83">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E19" s="83">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F19" s="83">
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="83">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H19" s="83">
-        <v>61</v>
-      </c>
-      <c r="I19" s="83">
-        <v>0</v>
-      </c>
-      <c r="J19" s="83">
-        <v>0</v>
-      </c>
-      <c r="L19" s="79">
-        <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="83">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D20" s="83">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E20" s="83">
-        <v>6.2E-2</v>
-      </c>
-      <c r="F20" s="83">
-        <v>2E-3</v>
-      </c>
-      <c r="G20" s="83">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H20" s="83">
+      <c r="H13" s="84">
         <v>89</v>
       </c>
-      <c r="I20" s="83">
-        <v>0</v>
-      </c>
-      <c r="J20" s="83">
-        <v>0</v>
-      </c>
-      <c r="L20" s="79">
-        <f t="shared" si="0"/>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="90">
-        <v>0.316</v>
-      </c>
-      <c r="D24" s="90">
-        <v>0.496</v>
-      </c>
-      <c r="E24" s="90">
-        <v>2.278</v>
-      </c>
-      <c r="F24" s="90">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G24" s="90">
-        <v>0.89</v>
-      </c>
-      <c r="H24" s="90">
-        <v>129</v>
-      </c>
-      <c r="I24" s="90">
-        <v>0</v>
-      </c>
-      <c r="J24" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="90">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="D25" s="90">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E25" s="90">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="F25" s="90">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="G25" s="90">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H25" s="90">
-        <v>247</v>
-      </c>
-      <c r="I25" s="90">
-        <v>0</v>
-      </c>
-      <c r="J25" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="90">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D26" s="90">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="E26" s="90">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="F26" s="90">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G26" s="90">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="H26" s="90">
-        <v>96</v>
-      </c>
-      <c r="I26" s="90">
-        <v>0</v>
-      </c>
-      <c r="J26" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="90">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D27" s="90">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E27" s="90">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="F27" s="90">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G27" s="90">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H27" s="90">
-        <v>113</v>
-      </c>
-      <c r="I27" s="90">
-        <v>0</v>
-      </c>
-      <c r="J27" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="90">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D28" s="90">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E28" s="90">
-        <v>2.5</v>
-      </c>
-      <c r="F28" s="90">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="G28" s="90">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="H28" s="90">
-        <v>48</v>
-      </c>
-      <c r="I28" s="90">
-        <v>0</v>
-      </c>
-      <c r="J28" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="90">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="D29" s="90">
-        <v>0.39</v>
-      </c>
-      <c r="E29" s="90">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="F29" s="90">
-        <v>0.308</v>
-      </c>
-      <c r="G29" s="90">
-        <v>0.73</v>
-      </c>
-      <c r="H29" s="90">
-        <v>40</v>
-      </c>
-      <c r="I29" s="90">
-        <v>0</v>
-      </c>
-      <c r="J29" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="90">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="D30" s="90">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="E30" s="90">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="F30" s="90">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="G30" s="90">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H30" s="90">
-        <v>673</v>
-      </c>
-      <c r="I30" s="90">
-        <v>0</v>
-      </c>
-      <c r="J30" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="90">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D31" s="90">
-        <v>0.121</v>
-      </c>
-      <c r="E31" s="90">
-        <v>1.145</v>
-      </c>
-      <c r="F31" s="90">
-        <v>0.114</v>
-      </c>
-      <c r="G31" s="90">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="H31" s="90">
-        <v>96</v>
-      </c>
-      <c r="I31" s="90">
-        <v>0</v>
-      </c>
-      <c r="J31" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="90">
-        <v>0.121</v>
-      </c>
-      <c r="D32" s="90">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="E32" s="90">
-        <v>1.69</v>
-      </c>
-      <c r="F32" s="90">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="G32" s="90">
-        <v>0.184</v>
-      </c>
-      <c r="H32" s="90">
-        <v>391</v>
-      </c>
-      <c r="I32" s="90">
-        <v>0</v>
-      </c>
-      <c r="J32" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="90">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D33" s="90">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E33" s="90">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="F33" s="90">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G33" s="90">
-        <v>0.16</v>
-      </c>
-      <c r="H33" s="90">
-        <v>128</v>
-      </c>
-      <c r="I33" s="90">
-        <v>0</v>
-      </c>
-      <c r="J33" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="90">
-        <v>0.04</v>
-      </c>
-      <c r="D34" s="90">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E34" s="90">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="F34" s="90">
-        <v>0.109</v>
-      </c>
-      <c r="G34" s="90">
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="90">
-        <v>129</v>
-      </c>
-      <c r="I34" s="90">
-        <v>0</v>
-      </c>
-      <c r="J34" s="90">
-        <v>0</v>
-      </c>
+      <c r="I13" s="84">
+        <v>0</v>
+      </c>
+      <c r="J13" s="86">
+        <v>0</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="90">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D35" s="90">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E35" s="90">
-        <v>0.505</v>
-      </c>
-      <c r="F35" s="90">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G35" s="90">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H35" s="90">
-        <v>360</v>
-      </c>
-      <c r="I35" s="90">
-        <v>0</v>
-      </c>
-      <c r="J35" s="90">
-        <v>0</v>
-      </c>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="90">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D36" s="90">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="E36" s="90">
-        <v>1.992</v>
-      </c>
-      <c r="F36" s="90">
-        <v>0.125</v>
-      </c>
-      <c r="G36" s="90">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H36" s="90">
-        <v>406</v>
-      </c>
-      <c r="I36" s="90">
-        <v>0</v>
-      </c>
-      <c r="J36" s="90">
-        <v>0</v>
-      </c>
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="90">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D37" s="90">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E37" s="90">
-        <v>1.661</v>
-      </c>
-      <c r="F37" s="90">
-        <v>0.115</v>
-      </c>
-      <c r="G37" s="90">
-        <v>0.09</v>
-      </c>
-      <c r="H37" s="90">
-        <v>426</v>
-      </c>
-      <c r="I37" s="90">
-        <v>0</v>
-      </c>
-      <c r="J37" s="90">
-        <v>0</v>
-      </c>
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="90">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D38" s="90">
-        <v>0.155</v>
-      </c>
-      <c r="E38" s="90">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="F38" s="90">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="G38" s="90">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="H38" s="90">
-        <v>541</v>
-      </c>
-      <c r="I38" s="90">
-        <v>0</v>
-      </c>
-      <c r="J38" s="90">
-        <v>0</v>
-      </c>
+      <c r="A38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="90">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D39" s="90">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E39" s="90">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="F39" s="90">
-        <v>0.121</v>
-      </c>
-      <c r="G39" s="90">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H39" s="90">
-        <v>130</v>
-      </c>
-      <c r="I39" s="90">
-        <v>0</v>
-      </c>
-      <c r="J39" s="90">
-        <v>0</v>
-      </c>
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="90">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D40" s="90">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E40" s="90">
-        <v>2.6520000000000001</v>
-      </c>
-      <c r="F40" s="90">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G40" s="90">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H40" s="90">
-        <v>674</v>
-      </c>
-      <c r="I40" s="90">
-        <v>0</v>
-      </c>
-      <c r="J40" s="90">
-        <v>0</v>
-      </c>
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="90">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D41" s="90">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E41" s="90">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="F41" s="90">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G41" s="90">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H41" s="90">
-        <v>246</v>
-      </c>
-      <c r="I41" s="90">
-        <v>0</v>
-      </c>
-      <c r="J41" s="90">
-        <v>0</v>
-      </c>
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="90">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D42" s="90">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E42" s="90">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="F42" s="90">
-        <v>0.01</v>
-      </c>
-      <c r="G42" s="90">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H42" s="90">
-        <v>358</v>
-      </c>
-      <c r="I42" s="90">
-        <v>0</v>
-      </c>
-      <c r="J42" s="90">
-        <v>0</v>
-      </c>
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7652,10 +7047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C9:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7669,7 +7064,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="1.42578125" customWidth="1"/>
     <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
@@ -7677,13 +7072,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="E9" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7710,15 +7105,15 @@
         <v>24</v>
       </c>
       <c r="G12" s="4">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
+        <f>136*3</f>
+        <v>408</v>
       </c>
       <c r="I12" s="5">
         <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
+        <v>2.450980392156854E-3</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -7729,15 +7124,15 @@
         <v>23</v>
       </c>
       <c r="G13" s="4">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f>90*3</f>
+        <v>270</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
+        <v>3.7037037037036535E-3</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -7748,15 +7143,15 @@
         <v>26</v>
       </c>
       <c r="G14" s="4">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f>89*3</f>
+        <v>267</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
+        <v>-7.4906367041198685E-3</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7767,15 +7162,15 @@
         <v>19</v>
       </c>
       <c r="G15" s="4">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
+        <f>61*3</f>
+        <v>183</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
+        <v>-1.0928961748633892E-2</v>
       </c>
     </row>
     <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -7786,18 +7181,18 @@
         <v>22</v>
       </c>
       <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
+        <v>293</v>
+      </c>
+      <c r="H16" s="3">
+        <f>98*3</f>
+        <v>294</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3.4013605442176909E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
@@ -7805,18 +7200,18 @@
         <v>21</v>
       </c>
       <c r="G17" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
+        <f>24*3</f>
+        <v>72</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
@@ -7824,27 +7219,27 @@
         <v>25</v>
       </c>
       <c r="G18" s="4">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
+        <f>106*3</f>
+        <v>318</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+        <v>-6.2893081761006275E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -7861,7 +7256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="13" t="s">
         <v>0</v>
       </c>
@@ -7869,19 +7264,22 @@
         <v>24</v>
       </c>
       <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
+        <f>G12*4</f>
+        <v>1628</v>
       </c>
       <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
+        <f>L26*3</f>
+        <v>1623</v>
       </c>
       <c r="I26" s="11">
         <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-3.0807147258162804E-3</v>
+      </c>
+      <c r="L26">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="13" t="s">
         <v>1</v>
       </c>
@@ -7889,19 +7287,22 @@
         <v>23</v>
       </c>
       <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
+        <f>G13*4</f>
+        <v>1076</v>
       </c>
       <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
+        <f t="shared" ref="H27:H32" si="1">L27*3</f>
+        <v>1080</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
+        <v>3.7037037037036535E-3</v>
+      </c>
+      <c r="L27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="13" t="s">
         <v>2</v>
       </c>
@@ -7909,19 +7310,22 @@
         <v>26</v>
       </c>
       <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
+        <f t="shared" ref="G28:G32" si="3">G14*4</f>
+        <v>1076</v>
       </c>
       <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
+        <f t="shared" si="1"/>
+        <v>1074</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.8621973929235924E-3</v>
+      </c>
+      <c r="L28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
@@ -7929,19 +7333,22 @@
         <v>19</v>
       </c>
       <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
+        <f t="shared" si="3"/>
+        <v>740</v>
       </c>
       <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
+        <f t="shared" si="1"/>
+        <v>738</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-2.7100271002709064E-3</v>
+      </c>
+      <c r="L29">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
@@ -7949,19 +7356,22 @@
         <v>22</v>
       </c>
       <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
+        <f t="shared" si="3"/>
+        <v>1172</v>
       </c>
       <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
+        <f t="shared" si="1"/>
+        <v>1173</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>8.5251491901106036E-4</v>
+      </c>
+      <c r="L30">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
@@ -7969,19 +7379,22 @@
         <v>21</v>
       </c>
       <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
+        <f t="shared" si="3"/>
+        <v>288</v>
       </c>
       <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
+        <f t="shared" si="1"/>
+        <v>288</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="13" t="s">
         <v>6</v>
       </c>
@@ -7989,28 +7402,31 @@
         <v>25</v>
       </c>
       <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
+        <f t="shared" si="3"/>
+        <v>1280</v>
       </c>
       <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
+        <f t="shared" si="1"/>
+        <v>1278</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.5649452269170805E-3</v>
+      </c>
+      <c r="L32">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E35" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+    </row>
+    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
@@ -8026,20 +7442,38 @@
       <c r="I37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="S37" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="T37" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="U37" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
         <v>0</v>
       </c>
@@ -8047,30 +7481,48 @@
         <v>24</v>
       </c>
       <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
+        <f>G12*4</f>
+        <v>1628</v>
+      </c>
+      <c r="H38" s="101">
+        <v>1629</v>
       </c>
       <c r="I38" s="11">
         <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
+        <v>6.1387354205033606E-4</v>
+      </c>
+      <c r="L38" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="101">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O38" s="101">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P38" s="101">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="Q38" s="101">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R38" s="101">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="S38" s="101">
+        <v>280</v>
+      </c>
+      <c r="T38" s="101">
+        <v>8</v>
+      </c>
+      <c r="U38" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
         <v>1</v>
       </c>
@@ -8078,30 +7530,48 @@
         <v>23</v>
       </c>
       <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
+        <f t="shared" ref="G39:G44" si="4">G13*4</f>
+        <v>1076</v>
+      </c>
+      <c r="H39" s="101">
+        <v>1075</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
+        <f t="shared" ref="I39:I44" si="5">1-G39/H39</f>
+        <v>-9.3023255813950989E-4</v>
+      </c>
+      <c r="L39" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="101">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="O39" s="101">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P39" s="101">
+        <v>2.36</v>
+      </c>
+      <c r="Q39" s="101">
+        <v>0.19</v>
+      </c>
+      <c r="R39" s="101">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="S39" s="101">
+        <v>1168</v>
+      </c>
+      <c r="T39" s="101">
+        <v>0</v>
+      </c>
+      <c r="U39" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
         <v>2</v>
       </c>
@@ -8109,30 +7579,48 @@
         <v>26</v>
       </c>
       <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
+        <f t="shared" si="4"/>
+        <v>1076</v>
+      </c>
+      <c r="H40" s="101">
+        <v>1076</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="101">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O40" s="101">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P40" s="101">
+        <v>1.597</v>
+      </c>
+      <c r="Q40" s="101">
+        <v>0.121</v>
+      </c>
+      <c r="R40" s="101">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S40" s="101">
+        <v>1075</v>
+      </c>
+      <c r="T40" s="101">
+        <v>0</v>
+      </c>
+      <c r="U40" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
@@ -8140,30 +7628,48 @@
         <v>19</v>
       </c>
       <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
+        <f t="shared" si="4"/>
+        <v>740</v>
+      </c>
+      <c r="H41" s="101">
+        <v>737</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-4.070556309362372E-3</v>
+      </c>
+      <c r="L41" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="101">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="O41" s="101">
+        <v>0.122</v>
+      </c>
+      <c r="P41" s="101">
+        <v>3.0840000000000001</v>
+      </c>
+      <c r="Q41" s="101">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="R41" s="101">
+        <v>0.114</v>
+      </c>
+      <c r="S41" s="101">
+        <v>1281</v>
+      </c>
+      <c r="T41" s="101">
+        <v>0</v>
+      </c>
+      <c r="U41" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
         <v>20</v>
       </c>
@@ -8171,30 +7677,48 @@
         <v>22</v>
       </c>
       <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
+        <f t="shared" si="4"/>
+        <v>1172</v>
+      </c>
+      <c r="H42" s="101">
+        <v>1168</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-3.424657534246478E-3</v>
+      </c>
+      <c r="L42" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="101">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="O42" s="101">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P42" s="101">
+        <v>2.48</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>0.253</v>
+      </c>
+      <c r="R42" s="101">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S42" s="101">
+        <v>1629</v>
+      </c>
+      <c r="T42" s="101">
+        <v>0</v>
+      </c>
+      <c r="U42" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
@@ -8202,30 +7726,48 @@
         <v>21</v>
       </c>
       <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="H43" s="101">
+        <v>280</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>-2.857142857142847E-2</v>
+      </c>
+      <c r="L43" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M43" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="101">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O43" s="101">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P43" s="101">
+        <v>1.738</v>
+      </c>
+      <c r="Q43" s="101">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R43" s="101">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="S43" s="101">
+        <v>737</v>
+      </c>
+      <c r="T43" s="101">
+        <v>0</v>
+      </c>
+      <c r="U43" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="13" t="s">
         <v>6</v>
       </c>
@@ -8233,28 +7775,52 @@
         <v>25</v>
       </c>
       <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="H44" s="101">
+        <v>1281</v>
       </c>
       <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>7.8064012490242085E-4</v>
+      </c>
+      <c r="L44" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
-      </c>
+      <c r="M44" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="101">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O44" s="101">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P44" s="101">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="Q44" s="101">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R44" s="101">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S44" s="101">
+        <v>1076</v>
+      </c>
+      <c r="T44" s="101">
+        <v>0</v>
+      </c>
+      <c r="U44" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="L45" s="90"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8265,4 +7831,1591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.112</v>
+      </c>
+      <c r="F3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>0.109</v>
+      </c>
+      <c r="D4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H6">
+        <v>102</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H7">
+        <v>106</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.111</v>
+      </c>
+      <c r="E8">
+        <v>0.156</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H8">
+        <v>136</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H9">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F10">
+        <v>2E-3</v>
+      </c>
+      <c r="G10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>89</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="92">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D21" s="92">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="92">
+        <v>0.108</v>
+      </c>
+      <c r="F21" s="92">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G21" s="92">
+        <v>0.104</v>
+      </c>
+      <c r="H21" s="92">
+        <v>24</v>
+      </c>
+      <c r="I21" s="92">
+        <v>0</v>
+      </c>
+      <c r="J21" s="92">
+        <v>0</v>
+      </c>
+      <c r="M21" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="P21" s="93">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q21" s="93">
+        <v>0.193</v>
+      </c>
+      <c r="R21" s="93">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S21" s="93">
+        <v>0.114</v>
+      </c>
+      <c r="T21" s="93">
+        <v>72</v>
+      </c>
+      <c r="U21" s="93">
+        <v>0</v>
+      </c>
+      <c r="V21" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="92">
+        <v>0.122</v>
+      </c>
+      <c r="D22" s="92">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E22" s="92">
+        <v>0.185</v>
+      </c>
+      <c r="F22" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="92">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H22" s="92">
+        <v>98</v>
+      </c>
+      <c r="I22" s="92">
+        <v>0</v>
+      </c>
+      <c r="J22" s="92">
+        <v>0</v>
+      </c>
+      <c r="M22" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="93">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P22" s="93">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q22" s="93">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R22" s="93">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S22" s="93">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T22" s="93">
+        <v>292</v>
+      </c>
+      <c r="U22" s="93">
+        <v>0</v>
+      </c>
+      <c r="V22" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="92">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D23" s="92">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E23" s="92">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F23" s="92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="92">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H23" s="92">
+        <v>89</v>
+      </c>
+      <c r="I23" s="92">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0</v>
+      </c>
+      <c r="M23" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="93">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P23" s="93">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q23" s="93">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="R23" s="93">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S23" s="93">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="T23" s="93">
+        <v>271</v>
+      </c>
+      <c r="U23" s="93">
+        <v>0</v>
+      </c>
+      <c r="V23" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="92">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D24" s="92">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E24" s="92">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F24" s="92">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="92">
+        <v>107</v>
+      </c>
+      <c r="I24" s="92">
+        <v>0</v>
+      </c>
+      <c r="J24" s="92">
+        <v>0</v>
+      </c>
+      <c r="M24" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="93">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P24" s="93">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q24" s="93">
+        <v>0.123</v>
+      </c>
+      <c r="R24" s="93">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S24" s="93">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T24" s="93">
+        <v>321</v>
+      </c>
+      <c r="U24" s="93">
+        <v>0</v>
+      </c>
+      <c r="V24" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="92">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D25" s="92">
+        <v>0.105</v>
+      </c>
+      <c r="E25" s="92">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F25" s="92">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G25" s="92">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H25" s="92">
+        <v>135</v>
+      </c>
+      <c r="I25" s="92">
+        <v>0</v>
+      </c>
+      <c r="J25" s="92">
+        <v>0</v>
+      </c>
+      <c r="M25" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="93">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P25" s="93">
+        <v>0.104</v>
+      </c>
+      <c r="Q25" s="93">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R25" s="93">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S25" s="93">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T25" s="93">
+        <v>408</v>
+      </c>
+      <c r="U25" s="93">
+        <v>0</v>
+      </c>
+      <c r="V25" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="92">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D26" s="92">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E26" s="92">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F26" s="92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="92">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H26" s="92">
+        <v>62</v>
+      </c>
+      <c r="I26" s="92">
+        <v>0</v>
+      </c>
+      <c r="J26" s="92">
+        <v>0</v>
+      </c>
+      <c r="M26" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="93">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P26" s="93">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Q26" s="93">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R26" s="93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S26" s="93">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T26" s="93">
+        <v>185</v>
+      </c>
+      <c r="U26" s="93">
+        <v>0</v>
+      </c>
+      <c r="V26" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="92">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D27" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="92">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F27" s="92">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="92">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H27" s="92">
+        <v>89</v>
+      </c>
+      <c r="I27" s="92">
+        <v>0</v>
+      </c>
+      <c r="J27" s="92">
+        <v>0</v>
+      </c>
+      <c r="M27" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="93">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P27" s="93">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q27" s="93">
+        <v>0.115</v>
+      </c>
+      <c r="R27" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="S27" s="93">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T27" s="93">
+        <v>268</v>
+      </c>
+      <c r="U27" s="93">
+        <v>0</v>
+      </c>
+      <c r="V27" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="T30" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>0.05</v>
+      </c>
+      <c r="D31">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.115</v>
+      </c>
+      <c r="H31">
+        <v>48</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="94">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P31" s="94">
+        <v>0.121</v>
+      </c>
+      <c r="Q31" s="94">
+        <v>1.145</v>
+      </c>
+      <c r="R31" s="94">
+        <v>0.114</v>
+      </c>
+      <c r="S31" s="94">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="T31" s="94">
+        <v>96</v>
+      </c>
+      <c r="U31" s="94">
+        <v>0</v>
+      </c>
+      <c r="V31" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>0.113</v>
+      </c>
+      <c r="D32">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.152</v>
+      </c>
+      <c r="H32">
+        <v>195</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="94">
+        <v>0.121</v>
+      </c>
+      <c r="P32" s="94">
+        <v>0.184</v>
+      </c>
+      <c r="Q32" s="94">
+        <v>1.69</v>
+      </c>
+      <c r="R32" s="94">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="S32" s="94">
+        <v>0.184</v>
+      </c>
+      <c r="T32" s="94">
+        <v>390</v>
+      </c>
+      <c r="U32" s="94">
+        <v>0</v>
+      </c>
+      <c r="V32" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G33">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>181</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="94">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P33" s="94">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q33" s="94">
+        <v>0.505</v>
+      </c>
+      <c r="R33" s="94">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S33" s="94">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T33" s="94">
+        <v>357</v>
+      </c>
+      <c r="U33" s="94">
+        <v>0</v>
+      </c>
+      <c r="V33" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.107</v>
+      </c>
+      <c r="F34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H34">
+        <v>212</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="94">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P34" s="94">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q34" s="94">
+        <v>1.661</v>
+      </c>
+      <c r="R34" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="S34" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="T34" s="94">
+        <v>429</v>
+      </c>
+      <c r="U34" s="94">
+        <v>0</v>
+      </c>
+      <c r="V34" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.104</v>
+      </c>
+      <c r="E35">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H35">
+        <v>271</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="94">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="P35" s="94">
+        <v>0.155</v>
+      </c>
+      <c r="Q35" s="94">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="R35" s="94">
+        <v>0.189</v>
+      </c>
+      <c r="S35" s="94">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="T35" s="94">
+        <v>544</v>
+      </c>
+      <c r="U35" s="94">
+        <v>0</v>
+      </c>
+      <c r="V35" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H36">
+        <v>123</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="94">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P36" s="94">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q36" s="94">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="R36" s="94">
+        <v>0.161</v>
+      </c>
+      <c r="S36" s="94">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="T36" s="94">
+        <v>246</v>
+      </c>
+      <c r="U36" s="94">
+        <v>0</v>
+      </c>
+      <c r="V36" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D37">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E37">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G37">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H37">
+        <v>181</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="94">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P37" s="94">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q37" s="94">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R37" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="S37" s="94">
+        <v>6.2E-2</v>
+      </c>
+      <c r="T37" s="94">
+        <v>360</v>
+      </c>
+      <c r="U37" s="94">
+        <v>0</v>
+      </c>
+      <c r="V37" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M39" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M40" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="S40" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="T40" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="V40" s="95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M41" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="95">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="P41" s="95">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="Q41" s="95">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="R41" s="95">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="S41" s="95">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="T41" s="95">
+        <v>117</v>
+      </c>
+      <c r="U41" s="95">
+        <v>1</v>
+      </c>
+      <c r="V41" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M42" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="95">
+        <v>1.07</v>
+      </c>
+      <c r="P42" s="95">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="Q42" s="95">
+        <v>12.659000000000001</v>
+      </c>
+      <c r="R42" s="95">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="S42" s="95">
+        <v>7.7720000000000002</v>
+      </c>
+      <c r="T42" s="95">
+        <v>421</v>
+      </c>
+      <c r="U42" s="95">
+        <v>0</v>
+      </c>
+      <c r="V42" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M43" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="95">
+        <v>0.22</v>
+      </c>
+      <c r="P43" s="95">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="Q43" s="95">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="R43" s="95">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="S43" s="95">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="T43" s="95">
+        <v>385</v>
+      </c>
+      <c r="U43" s="95">
+        <v>0</v>
+      </c>
+      <c r="V43" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M44" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="95">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P44" s="95">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="Q44" s="95">
+        <v>8.3550000000000004</v>
+      </c>
+      <c r="R44" s="95">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="S44" s="95">
+        <v>5.851</v>
+      </c>
+      <c r="T44" s="95">
+        <v>506</v>
+      </c>
+      <c r="U44" s="95">
+        <v>0</v>
+      </c>
+      <c r="V44" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M45" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="95">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="P45" s="95">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="Q45" s="95">
+        <v>12.112</v>
+      </c>
+      <c r="R45" s="95">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="S45" s="95">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="T45" s="95">
+        <v>611</v>
+      </c>
+      <c r="U45" s="95">
+        <v>0</v>
+      </c>
+      <c r="V45" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M46" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="95">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="P46" s="95">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q46" s="95">
+        <v>7.7939999999999996</v>
+      </c>
+      <c r="R46" s="95">
+        <v>1.093</v>
+      </c>
+      <c r="S46" s="95">
+        <v>4.125</v>
+      </c>
+      <c r="T46" s="95">
+        <v>243</v>
+      </c>
+      <c r="U46" s="95">
+        <v>0</v>
+      </c>
+      <c r="V46" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M47" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="95">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P47" s="95">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="Q47" s="95">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="R47" s="95">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="S47" s="95">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T47" s="95">
+        <v>385</v>
+      </c>
+      <c r="U47" s="95">
+        <v>0</v>
+      </c>
+      <c r="V47" s="95">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>